--- a/Empire South - eCSI Regressions.xlsx
+++ b/Empire South - eCSI Regressions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t xml:space="preserve">Question</t>
   </si>
@@ -31,30 +31,36 @@
     <t xml:space="preserve">Information given about problems/delays while on the train</t>
   </si>
   <si>
+    <t xml:space="preserve">2130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendliness/helpfulness of the train conductors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall cleanliness of the train interior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smooth and comfortable train ride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amtrak's ability to get you to your destination safely</t>
+  </si>
+  <si>
     <t xml:space="preserve">2120</t>
   </si>
   <si>
     <t xml:space="preserve">Reliability or on-time performance of the train</t>
   </si>
   <si>
-    <t xml:space="preserve">2030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smooth and comfortable train ride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amtrak's ability to get you to your destination safely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Friendliness/helpfulness of the train conductors</t>
-  </si>
-  <si>
     <t xml:space="preserve">1110</t>
   </si>
   <si>
@@ -67,10 +73,22 @@
     <t xml:space="preserve">Accuracy of information received about the train trip prior to boarding the train</t>
   </si>
   <si>
-    <t xml:space="preserve">2050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall cleanliness of the train interior</t>
+    <t xml:space="preserve">1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ease of train boarding process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information given on the train about services/features/safety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal security on the train</t>
   </si>
   <si>
     <t xml:space="preserve">1020</t>
@@ -79,22 +97,10 @@
     <t xml:space="preserve">Friendliness/helpfulness of station personnel at boarding station</t>
   </si>
   <si>
-    <t xml:space="preserve">1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ease of train boarding process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Information given on the train about services/features/safety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal security on the train</t>
+    <t xml:space="preserve">1060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clarity of station signage/announcements at boarding station </t>
   </si>
   <si>
     <t xml:space="preserve">2060</t>
@@ -103,30 +109,24 @@
     <t xml:space="preserve">Cleanliness of train windows</t>
   </si>
   <si>
+    <t xml:space="preserve">1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability of station signage/announcements at boarding station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall condition of the train platform and boarding area</t>
+  </si>
+  <si>
     <t xml:space="preserve">2110</t>
   </si>
   <si>
     <t xml:space="preserve">Clarity of announcements on the train</t>
   </si>
   <si>
-    <t xml:space="preserve">1060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clarity of station signage/announcements at boarding station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability of station signage/announcements at boarding station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall condition of the train platform and boarding area</t>
-  </si>
-  <si>
     <t xml:space="preserve">3020</t>
   </si>
   <si>
@@ -139,48 +139,42 @@
     <t xml:space="preserve">Clarity of information about connecting transportation services at destination station</t>
   </si>
   <si>
+    <t xml:space="preserve">1090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall cleanliness of the boarding station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal safety at boarding station </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall station experience at the destination station</t>
+  </si>
+  <si>
     <t xml:space="preserve">2040</t>
   </si>
   <si>
     <t xml:space="preserve">Air temperature on the train</t>
   </si>
   <si>
-    <t xml:space="preserve">2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cleanliness of the restrooms on the train</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal safety at boarding station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall station experience at the destination station</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall cleanliness of the boarding station </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smell of restrooms on the train pleasant/free of odor</t>
-  </si>
-  <si>
     <t xml:space="preserve">2420</t>
   </si>
   <si>
     <t xml:space="preserve">Overall, how satisfied were you with the basic Wi-Fi service on the train?</t>
   </si>
   <si>
+    <t xml:space="preserve">3010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall cleanliness of the destination station </t>
+  </si>
+  <si>
     <t xml:space="preserve">2460</t>
   </si>
   <si>
@@ -193,12 +187,6 @@
     <t xml:space="preserve">Ability to perform online activities that I want</t>
   </si>
   <si>
-    <t xml:space="preserve">3010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall cleanliness of the destination station </t>
-  </si>
-  <si>
     <t xml:space="preserve">2450</t>
   </si>
   <si>
@@ -211,6 +199,12 @@
     <t xml:space="preserve">Ease of accessing Amtrak's Wi-Fi service (sign-on process)</t>
   </si>
   <si>
+    <t xml:space="preserve">rrP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estimate</t>
   </si>
   <si>
@@ -223,76 +217,94 @@
     <t xml:space="preserve">Pr(&gt;|t|)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.791923527566704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.283677898383908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.776664332385456</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00811533571053101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25.6076717852892</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.99508338820287e-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00859246935478237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.5766272064756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.68987350894362e-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0101641693053094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.7027480019319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.512165518889e-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0102755485938758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.384197523724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.35009293307922e-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00796052589182076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.1350301664374</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57570368607851e-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00661156585460632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.2897327927139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.41597832777495e-29</t>
+    <t xml:space="preserve">2.71119014870664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.118895006309674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.905386175221852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0235086967595166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.88309405082192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.71381410809886e-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0300957501083674</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.31895851770764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.33009638837595e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0306866533141202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.74420957649858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44840099360002e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0277742429100324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15783707180561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.09931981396308e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0278150187437676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.98498736385822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.48789084528729e-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0243209434600448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.11475080397116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00190174776822505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0202507647317597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.85164926450892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0644172135575062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0404387272460747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72636554638826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.467811434949176</t>
   </si>
   <si>
     <t xml:space="preserve">Intercept</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00992673932891402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1076.82471328323</t>
+    <t xml:space="preserve">0.0324670321713268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-786.731211279265</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -655,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.435694764385023</v>
+        <v>0.428882678793157</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -666,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.433831282516632</v>
+        <v>0.38583078822412</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -677,7 +689,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.392209335853444</v>
+        <v>0.381657699382621</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -688,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.379353788577161</v>
+        <v>0.37993450853764</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -699,7 +711,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.367178697467078</v>
+        <v>0.374466935521247</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -710,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.361595601480012</v>
+        <v>0.369206015247939</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -721,7 +733,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.350928885772271</v>
+        <v>0.362429636720491</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -732,7 +744,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>0.343971013502761</v>
+        <v>0.348070089497368</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -743,7 +755,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.297518878776752</v>
+        <v>0.328264034510469</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -754,7 +766,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="n">
-        <v>0.290991592136532</v>
+        <v>0.323489821027377</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
@@ -765,7 +777,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="n">
-        <v>0.284538989943766</v>
+        <v>0.292684986988291</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
@@ -776,7 +788,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="n">
-        <v>0.280651511734003</v>
+        <v>0.291168753477942</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -787,7 +799,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="n">
-        <v>0.278595750342531</v>
+        <v>0.284749523725042</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -798,7 +810,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="n">
-        <v>0.263358155067805</v>
+        <v>0.283362018775536</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -809,7 +821,7 @@
         <v>31</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260180633559857</v>
+        <v>0.281784774635411</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
@@ -820,7 +832,7 @@
         <v>33</v>
       </c>
       <c r="B17" t="n">
-        <v>0.258213135012726</v>
+        <v>0.274761959203105</v>
       </c>
       <c r="C17" t="s">
         <v>34</v>
@@ -831,7 +843,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>0.257788997651544</v>
+        <v>0.260606600455235</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
@@ -842,7 +854,7 @@
         <v>37</v>
       </c>
       <c r="B19" t="n">
-        <v>0.243541898436488</v>
+        <v>0.243208830800516</v>
       </c>
       <c r="C19" t="s">
         <v>38</v>
@@ -853,7 +865,7 @@
         <v>39</v>
       </c>
       <c r="B20" t="n">
-        <v>0.236222337115969</v>
+        <v>0.232936362343259</v>
       </c>
       <c r="C20" t="s">
         <v>40</v>
@@ -864,7 +876,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="n">
-        <v>0.234780016735229</v>
+        <v>0.220876000819254</v>
       </c>
       <c r="C21" t="s">
         <v>42</v>
@@ -875,7 +887,7 @@
         <v>43</v>
       </c>
       <c r="B22" t="n">
-        <v>0.232314204866581</v>
+        <v>0.216822648818341</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -886,7 +898,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>0.229406315523528</v>
+        <v>0.215922138562054</v>
       </c>
       <c r="C23" t="s">
         <v>46</v>
@@ -897,7 +909,7 @@
         <v>47</v>
       </c>
       <c r="B24" t="n">
-        <v>0.218360964391367</v>
+        <v>0.194156875614376</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -908,7 +920,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>0.217954444026043</v>
+        <v>0.180875736686575</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
@@ -919,7 +931,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="n">
-        <v>0.198078810863274</v>
+        <v>0.17759406477117</v>
       </c>
       <c r="C26" t="s">
         <v>52</v>
@@ -930,7 +942,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="n">
-        <v>0.188982927531702</v>
+        <v>0.172928172750474</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
@@ -941,7 +953,7 @@
         <v>55</v>
       </c>
       <c r="B28" t="n">
-        <v>0.183579381442802</v>
+        <v>0.17093292962229</v>
       </c>
       <c r="C28" t="s">
         <v>56</v>
@@ -952,7 +964,7 @@
         <v>57</v>
       </c>
       <c r="B29" t="n">
-        <v>0.180589476453461</v>
+        <v>0.161966658880159</v>
       </c>
       <c r="C29" t="s">
         <v>58</v>
@@ -963,7 +975,7 @@
         <v>59</v>
       </c>
       <c r="B30" t="n">
-        <v>0.180287903159426</v>
+        <v>0.155659452245762</v>
       </c>
       <c r="C30" t="s">
         <v>60</v>
@@ -974,21 +986,10 @@
         <v>61</v>
       </c>
       <c r="B31" t="n">
-        <v>0.179329531570203</v>
+        <v>0.0465315525225215</v>
       </c>
       <c r="C31" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.175672529546761</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1010,16 +1011,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
-        <v>68</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1027,182 +1028,222 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.224651201980893</v>
+        <v>0.322346969837203</v>
       </c>
       <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
         <v>69</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.207814853302715</v>
+        <v>0.208829964327039</v>
       </c>
       <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185396508051205</v>
+        <v>0.160078046385701</v>
       </c>
       <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149441219944935</v>
+        <v>0.145583914523541</v>
       </c>
       <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="D5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.147805520638935</v>
+        <v>0.143255019722699</v>
       </c>
       <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>0.120482799513413</v>
+        <v>0.138657516963161</v>
       </c>
       <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="D7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0746428118399367</v>
+        <v>0.0757536781955116</v>
       </c>
       <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.037497313621306</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
         <v>90</v>
       </c>
-      <c r="B9" t="n">
-        <v>-10.6893582316952</v>
-      </c>
-      <c r="C9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E9" t="s">
-        <v>93</v>
-      </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0293732982113408</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-25.5428275467908</v>
+      </c>
+      <c r="C11" t="s">
         <v>95</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.700192248932752</v>
-      </c>
-      <c r="C10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" t="s">
-        <v>94</v>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.744575300545081</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1221,34 +1262,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.224651201980893</v>
+        <v>0.322346969837203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.207814853302715</v>
+        <v>0.208829964327039</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.185396508051205</v>
+        <v>0.160078046385701</v>
       </c>
     </row>
   </sheetData>
